--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugii syuji\spoon_metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syuuj\spoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E9E256-EC8F-4CA0-BFC3-CDF3B48122CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0C8E5A-2441-4740-AEDB-7C6F2620B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D9401AE-FB63-4DA5-8A12-275353EA90A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0D9401AE-FB63-4DA5-8A12-275353EA90A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>CtInvocation</t>
     <phoneticPr fontId="1"/>
@@ -299,6 +299,90 @@
     </rPh>
     <rPh sb="53" eb="54">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATFD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FDP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NProtM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOvR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部クラスへのデータアクセス数</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATLD/(ATFD+ATLD)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスしている外部クラスの数</t>
+    <rPh sb="8" eb="10">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親クラスのprotected数</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protectedの使用数/親のprotected数</t>
+    <rPh sb="10" eb="13">
+      <t>シヨウスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーライドした数/子クラスのメソッド数</t>
+    <rPh sb="9" eb="10">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -684,20 +768,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CE49E5-5A0E-41D6-BDF6-D0FD09293F4B}">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -708,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -719,17 +803,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -740,17 +824,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -758,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -766,12 +850,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -782,7 +866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -790,44 +874,92 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syuuj\spoon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugii syuji\spoon_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0C8E5A-2441-4740-AEDB-7C6F2620B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9278416B-DAE8-4AB1-8B3A-1DA198FB7585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0D9401AE-FB63-4DA5-8A12-275353EA90A9}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{0D9401AE-FB63-4DA5-8A12-275353EA90A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>CtInvocation</t>
     <phoneticPr fontId="1"/>
@@ -383,6 +383,161 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドにおいて，getもしくはsetを持つもの</t>
+    <rPh sb="20" eb="21">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATFD・ATLD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静的フィールド・フィールドアクセス</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fieldAccess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.field⇒fieldが検出される</t>
+    <rPh sb="17" eb="19">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.instance.field⇒instanceとfieldが検出される</t>
+    <rPh sb="35" eb="37">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.instance.method()⇒instanceが検出される</t>
+    <rPh sb="32" eb="34">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✖</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fieldのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>staticなfield⇒fieldが検出される</t>
+    <rPh sb="19" eb="21">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒isStatic()で判別できる</t>
+    <rPh sb="12" eb="14">
+      <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>instanceの親要素がCtInvocationの場合疑い</t>
+    <rPh sb="9" eb="10">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getTarget()は，instance.method()の時instanceを返す</t>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>instanceの親要素がfieldになるので，instanceの親要素がfieldreadの場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✖</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>親要素のCtInvocationのgetTarget()がthis.instacneの場合メソッド呼び出し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✖</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -391,7 +546,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +561,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,8 +591,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,20 +932,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CE49E5-5A0E-41D6-BDF6-D0FD09293F4B}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -803,17 +969,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -824,17 +990,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -842,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -850,12 +1016,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -866,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -874,71 +1040,80 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -946,20 +1121,68 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugii syuji\spoon_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9278416B-DAE8-4AB1-8B3A-1DA198FB7585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06ED6EE-A336-4774-AAAE-78C41D9E0909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{0D9401AE-FB63-4DA5-8A12-275353EA90A9}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{0D9401AE-FB63-4DA5-8A12-275353EA90A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>CtInvocation</t>
     <phoneticPr fontId="1"/>
@@ -439,20 +439,6 @@
   </si>
   <si>
     <t>fieldのみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>staticなfield⇒fieldが検出される</t>
-    <rPh sb="19" eb="21">
-      <t>ケンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⇒isStatic()で判別できる</t>
-    <rPh sb="12" eb="14">
-      <t>ハンベツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -538,6 +524,145 @@
     </rPh>
     <rPh sb="51" eb="52">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.instance.instance.method()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fieldAccess.getVariable().getDeclaringType()⇒宣言元</t>
+    <rPh sb="45" eb="47">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fieldAccess.getType()⇒型（intとか)</t>
+    <rPh sb="22" eb="23">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invocation.getExcutable().getDeclaringType()⇒宣言元</t>
+    <rPh sb="45" eb="47">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invocation.getExcutable().getSimpleName()⇒メソッド名</t>
+    <rPh sb="46" eb="47">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invocation.getType()⇒返り値</t>
+    <rPh sb="21" eb="22">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localのinvocationまたはfieldaccessにおいて，protectedなのかどうかを知りたい．</t>
+    <rPh sb="51" eb="52">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invocationについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invocation.getExecutable().getExecutableDeclaration()で元をたどれる．</t>
+    <rPh sb="54" eb="55">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>super()の扱いがどうなっているのかを知る必要</t>
+    <rPh sb="8" eb="9">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git rev-list HEADでハッシュを全取得する</t>
+    <rPh sb="23" eb="24">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git rev-list HEAD --grep="fix"でfixを含むハッシュを全取得する</t>
+    <rPh sb="35" eb="36">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git diff --name-status [hash値] --"src/main/*.java"で変更のあったjavaファイルを取得</t>
+    <rPh sb="28" eb="29">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのjavaファイルを更新する</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒プロジェクトを解析する．更新したファイルのみを解析する？？</t>
+    <rPh sb="8" eb="10">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -932,16 +1057,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CE49E5-5A0E-41D6-BDF6-D0FD09293F4B}">
-  <dimension ref="A2:H37"/>
+  <dimension ref="A2:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="C47" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="67.1640625" bestFit="1" customWidth="1"/>
@@ -1132,7 +1257,7 @@
         <v>43</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1149,10 +1274,10 @@
         <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1164,6 +1289,12 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
       <c r="E36" t="s">
         <v>45</v>
       </c>
@@ -1171,18 +1302,84 @@
         <v>49</v>
       </c>
       <c r="G36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s">
-        <v>51</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugii syuji\spoon_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06ED6EE-A336-4774-AAAE-78C41D9E0909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD1563C-F139-4154-B8B5-B149B1E04213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{0D9401AE-FB63-4DA5-8A12-275353EA90A9}"/>
   </bookViews>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CE49E5-5A0E-41D6-BDF6-D0FD09293F4B}">
   <dimension ref="A2:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C47" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugii syuji\spoon_metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syuuj\spoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD1563C-F139-4154-B8B5-B149B1E04213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA7E52E-6495-43BF-8868-B67235359863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{0D9401AE-FB63-4DA5-8A12-275353EA90A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0D9401AE-FB63-4DA5-8A12-275353EA90A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1059,20 +1059,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CE49E5-5A0E-41D6-BDF6-D0FD09293F4B}">
   <dimension ref="A2:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1094,17 +1094,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1115,17 +1115,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1141,12 +1141,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -1165,47 +1165,47 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
         <v>44</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>56</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1321,17 +1321,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1339,22 +1339,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -1362,22 +1362,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
         <v>69</v>
       </c>
